--- a/tables.xlsx
+++ b/tables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>requests</t>
   </si>
@@ -39,9 +39,6 @@
     <t>foreign_id (requests.id)</t>
   </si>
   <si>
-    <t>correlated_requests</t>
-  </si>
-  <si>
     <t>foreign_id(requests.id)</t>
   </si>
   <si>
@@ -61,6 +58,15 @@
   </si>
   <si>
     <t>type_of_path</t>
+  </si>
+  <si>
+    <t>correlated_assigns_for_request (GET)</t>
+  </si>
+  <si>
+    <t>param_name</t>
+  </si>
+  <si>
+    <t>correlated_assigns_for_request (POST, PUT, fat GET, whatever)</t>
   </si>
 </sst>
 </file>
@@ -404,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +461,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -466,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
@@ -475,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -511,7 +517,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -519,16 +525,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -558,6 +564,48 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
